--- a/Phyloseq and Microbiome/cdt-data.xlsx
+++ b/Phyloseq and Microbiome/cdt-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderkkr/Dropbox/Projects/00_Master_projects/01_Active_Projects/09_Arven_etter_Nansen/DADA2_git/Phyloseq and Microbiome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67DDD1F-1CF1-6D4C-BDC2-E786AD5F4F59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BFFB2-3DA6-2944-8FDE-775E12C41C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8460" yWindow="460" windowWidth="17140" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="152">
   <si>
     <t>date</t>
   </si>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1227,8 +1227,8 @@
       <c r="P8" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" t="s">
-        <v>38</v>
+      <c r="Q8">
+        <v>2016</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1333,8 +1333,8 @@
       <c r="P10" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" t="s">
-        <v>38</v>
+      <c r="Q10">
+        <v>2017</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
